--- a/general/mark_sheet.xlsx
+++ b/general/mark_sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prashanthsingaravelan/Desktop/github/winter_semester-2022/general/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prashanthsingaravelan/Desktop/github/winter-semester-2022/general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72334B5-D4F7-BB46-B281-0EBA0A7DBF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CE5F08-F978-254C-9A34-5BED7C5370A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="35">
   <si>
     <t>cat-1</t>
   </si>
@@ -97,6 +97,39 @@
   </si>
   <si>
     <t>16/30</t>
+  </si>
+  <si>
+    <t>87.60/100</t>
+  </si>
+  <si>
+    <t>Soft Skills</t>
+  </si>
+  <si>
+    <t>61.30/100</t>
+  </si>
+  <si>
+    <t>Scored Mark</t>
+  </si>
+  <si>
+    <t>74.10 / 100</t>
+  </si>
+  <si>
+    <t>84/100</t>
+  </si>
+  <si>
+    <t>67.40/100</t>
+  </si>
+  <si>
+    <t>78.68/100</t>
+  </si>
+  <si>
+    <t>87.20/100</t>
+  </si>
+  <si>
+    <t>82.70/100</t>
+  </si>
+  <si>
+    <t>72.60/100</t>
   </si>
 </sst>
 </file>
@@ -439,34 +472,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -474,44 +511,50 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="6"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -519,44 +562,49 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
@@ -564,47 +612,52 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
@@ -612,44 +665,50 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B32" s="6"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
@@ -657,47 +716,52 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>0</v>
       </c>
@@ -705,44 +769,50 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B48" s="6"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>0</v>
       </c>
@@ -750,44 +820,50 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B56" s="6"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>0</v>
       </c>
@@ -795,31 +871,81 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B64" s="6"/>
+      <c r="C64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
